--- a/Banco Central/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
+++ b/Banco Central/12/1/2/Mensual 1983 a 2021 - Mensual.xlsx
@@ -16139,7 +16139,7 @@
         <v>3</v>
       </c>
       <c r="E453">
-        <v>8.5</v>
+        <v>8.6</v>
       </c>
       <c r="F453">
         <v>3.3</v>
@@ -16289,7 +16289,7 @@
         <v>3</v>
       </c>
       <c r="E456">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F456">
         <v>4.2</v>
@@ -16339,7 +16339,7 @@
         <v>3</v>
       </c>
       <c r="E457">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="F457">
         <v>4.5</v>
@@ -16571,7 +16571,7 @@
         <v>3</v>
       </c>
       <c r="E462">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="F462">
         <v>3.8</v>
@@ -16587,6 +16587,9 @@
       </c>
       <c r="K462">
         <v>4.2</v>
+      </c>
+      <c r="M462">
+        <v>14.6</v>
       </c>
       <c r="N462">
         <v>15.6</v>
@@ -16605,8 +16608,29 @@
       <c r="B463">
         <v>5.9</v>
       </c>
+      <c r="D463">
+        <v>2.9</v>
+      </c>
+      <c r="E463">
+        <v>7.7</v>
+      </c>
       <c r="F463">
         <v>3.7</v>
+      </c>
+      <c r="H463">
+        <v>5.9</v>
+      </c>
+      <c r="I463">
+        <v>4.8</v>
+      </c>
+      <c r="K463">
+        <v>4.8</v>
+      </c>
+      <c r="N463">
+        <v>14.4</v>
+      </c>
+      <c r="O463">
+        <v>4</v>
       </c>
       <c r="P463">
         <v>10.3</v>
